--- a/documents/任务.xlsx
+++ b/documents/任务.xlsx
@@ -15,8 +15,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1、主线任务
+2、支线任务
+3、日常任务
+4、循环任务</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>msg</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,11 +86,15 @@
     <t>俗话说：“人在江湖漂，哪能不挨刀”，行走江湖最重要的是什么？当然是常备金创药了。你到《城里》逛逛，熟悉一下，顺路买&lt;font color=blue&gt;5&lt;/font&gt;瓶&lt;font color=blue&gt;金创药(小)&lt;/font&gt;过来。</t>
   </si>
   <si>
-    <t>有了金创药，只能保证你受伤了可以自己医治。可是，难道你打不还手么？村里胖掌柜正要准备明天的羊肉，你去帮忙杀羊，了解怎么挥剑才能快、准、狠。熟悉以后带&lt;font color=blue&gt;5&lt;/font&gt;块&lt;font color=blue&gt;鹿肉&lt;/font&gt;回来。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>好了，你已经知道该怎么攻击敌人。如果你能去&lt;font color=blue&gt;比奇城外&lt;/font&gt;抢回来&lt;font color=blue&gt;1&lt;/font&gt;把&lt;font color=blue&gt;青铜剑&lt;/font&gt;，我便送你一套盔甲助你行走江湖。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有了金创药，只能保证你受伤了可以自己医治。可是，难道你打不还手么？村里胖掌柜正在杀鹿，你去搭把手，了解怎么挥剑才能快、准、狠。熟悉以后带&lt;font color=blue&gt;5&lt;/font&gt;块&lt;font color=blue&gt;鹿肉&lt;/font&gt;回来。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -61,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +117,19 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -407,95 +461,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="81.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.625" customWidth="1"/>
+    <col min="8" max="8" width="81.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B2">
         <v>201001</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>201001</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>50</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B3">
         <v>299001</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B4">
+        <v>301005</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>301005</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/documents/任务.xlsx
+++ b/documents/任务.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="90" windowWidth="19395" windowHeight="9180"/>
+    <workbookView xWindow="3945" yWindow="450" windowWidth="19395" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="主线任务" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,38 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
+23位代表type,具体含义如下</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1、主线任务
+2、支线任务
+3、日常任务
+4、循环任务
+5、悬赏任务</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -38,13 +70,49 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1、主线任务
-2、支线任务
-3、日常任务
-4、循环任务</t>
+0、无条件
+1、等级
+2、金钱
+3、声望
+4、攻击
+5、魔法
+6、道术
+7、防御
+8、魔御
+9、拥有某道具</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1、金钱
+2、声望
+3、某道具
+4、杀怪</t>
         </r>
       </text>
     </comment>
@@ -53,20 +121,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>msg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>require_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>require_item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>give_item</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,11 +150,80 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>有了金创药，只能保证你受伤了可以自己医治。可是，难道你打不还手么？村里胖掌柜正在杀鹿，你去搭把手，了解怎么挥剑才能快、准、狠。熟悉以后带&lt;font color=blue&gt;5&lt;/font&gt;块&lt;font color=blue&gt;鹿肉&lt;/font&gt;回来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition
+Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conditon
+Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Require
+Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Require
+TypeDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Require
+Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪天护盾-圣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪天护盾-玄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级声望卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级声望卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魂珠碎片(小)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神石结晶(小)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤月魔剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五级声望卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六级声望卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,6 +251,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -129,6 +259,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -154,12 +285,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,91 +602,512 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="66.625" customWidth="1"/>
-    <col min="8" max="8" width="81.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="66.625" customWidth="1"/>
+    <col min="12" max="12" width="81.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>501001</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E2">
+        <v>201001</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>201001</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>501002</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B2">
-        <v>201001</v>
-      </c>
-      <c r="C2">
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>299001</v>
+      </c>
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="D2" s="1">
-        <v>201001</v>
-      </c>
-      <c r="E2">
-        <v>50</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B3">
-        <v>299001</v>
-      </c>
-      <c r="C3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>501003</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>301005</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>505001</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>20003</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>505002</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>20005</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>505003</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>20013</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>505004</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>20006</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8">
         <v>5</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>505005</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>20015</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>505006</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>20021</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>505007</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>20018</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>505008</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>20026</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>505009</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>65</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>10031</v>
+      </c>
+      <c r="F13">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B4">
-        <v>301005</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>505010</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>78</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>10013</v>
+      </c>
+      <c r="F14">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>505011</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>83</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>10035</v>
+      </c>
+      <c r="F15">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>505012</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>92</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>10030</v>
+      </c>
+      <c r="F16">
+        <v>1000</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>505013</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>99</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>10077</v>
+      </c>
+      <c r="F17">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>505014</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>8888</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>505015</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>9999</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/documents/任务.xlsx
+++ b/documents/任务.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="450" windowWidth="19395" windowHeight="9180"/>
+    <workbookView xWindow="735" yWindow="465" windowWidth="19395" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="主线任务" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,7 @@
           <t xml:space="preserve">
 1、主线任务
 2、支线任务
-3、日常任务
-4、循环任务
-5、悬赏任务</t>
+3、降妖除魔</t>
         </r>
       </text>
     </comment>
@@ -121,36 +119,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t>msg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>give_item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>give_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>220001-220003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>302002,303002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>俗话说：“人在江湖漂，哪能不挨刀”，行走江湖最重要的是什么？当然是常备金创药了。你到《城里》逛逛，熟悉一下，顺路买&lt;font color=blue&gt;5&lt;/font&gt;瓶&lt;font color=blue&gt;金创药(小)&lt;/font&gt;过来。</t>
-  </si>
-  <si>
-    <t>好了，你已经知道该怎么攻击敌人。如果你能去&lt;font color=blue&gt;比奇城外&lt;/font&gt;抢回来&lt;font color=blue&gt;1&lt;/font&gt;把&lt;font color=blue&gt;青铜剑&lt;/font&gt;，我便送你一套盔甲助你行走江湖。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有了金创药，只能保证你受伤了可以自己医治。可是，难道你打不还手么？村里胖掌柜正在杀鹿，你去搭把手，了解怎么挥剑才能快、准、狠。熟悉以后带&lt;font color=blue&gt;5&lt;/font&gt;块&lt;font color=blue&gt;鹿肉&lt;/font&gt;回来。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -183,47 +154,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>洪天护盾-圣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洪天护盾-玄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1级声望卷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2级声望卷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魂珠碎片(小)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神石结晶(小)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天河</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赤月魔剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五级声望卷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>六级声望卷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
+    <t>杀鸡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -285,11 +216,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -297,9 +225,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -615,499 +540,339 @@
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
-    <col min="10" max="10" width="66.625" customWidth="1"/>
-    <col min="12" max="12" width="81.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.625" customWidth="1"/>
+    <col min="9" max="9" width="81.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="4" t="s">
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>501001</v>
+        <v>503001</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="D2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>201001</v>
+        <v>10001</v>
       </c>
       <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1">
-        <v>201001</v>
-      </c>
-      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>503002</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>10005</v>
+      </c>
+      <c r="F3">
+        <v>150</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>503003</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>10006</v>
+      </c>
+      <c r="F4">
+        <v>200</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>503004</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>10012</v>
+      </c>
+      <c r="F5">
+        <v>250</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>503005</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>10015</v>
+      </c>
+      <c r="F6">
+        <v>400</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>503006</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>20003</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>503007</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>10019</v>
+      </c>
+      <c r="F8">
+        <v>500</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>503008</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>10023</v>
+      </c>
+      <c r="F9">
+        <v>600</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>503009</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>10030</v>
+      </c>
+      <c r="F10">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>503010</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>10025</v>
+      </c>
+      <c r="F11">
+        <v>800</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>503011</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>10028</v>
+      </c>
+      <c r="F12">
+        <v>900</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>503012</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>20005</v>
+      </c>
+      <c r="F13">
         <v>50</v>
       </c>
-      <c r="J2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>501002</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>299001</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="G13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>501003</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>301005</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>505001</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>20003</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>505002</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>20005</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>505003</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>17</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>20013</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>505004</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>20006</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>505005</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>20015</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>505006</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>27</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>20021</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>505007</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>30</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>20018</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>505008</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>31</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>20026</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>505009</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>65</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>10031</v>
-      </c>
-      <c r="F13">
-        <v>1000</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>505010</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>78</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
+        <v>503013</v>
       </c>
       <c r="E14">
-        <v>10013</v>
+        <v>10036</v>
       </c>
       <c r="F14">
         <v>1000</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>505011</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>83</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
+        <v>503014</v>
       </c>
       <c r="E15">
-        <v>10035</v>
+        <v>10039</v>
       </c>
       <c r="F15">
-        <v>1000</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>505012</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>92</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
+        <v>503015</v>
       </c>
       <c r="E16">
-        <v>10030</v>
+        <v>10038</v>
       </c>
       <c r="F16">
-        <v>1000</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>505013</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>99</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <v>10077</v>
-      </c>
-      <c r="F17">
-        <v>1000</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>505014</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>8888</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>505015</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>9999</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1000</v>
+        <v>503016</v>
       </c>
     </row>
   </sheetData>
